--- a/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>368418</v>
+        <v>371530</v>
       </c>
       <c r="D2" t="n">
-        <v>473340448</v>
+        <v>478438275</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D3" t="n">
-        <v>357855</v>
+        <v>358730</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D4" t="n">
-        <v>567985</v>
+        <v>575460</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>976</v>
+        <v>985</v>
       </c>
       <c r="D9" t="n">
-        <v>1493959</v>
+        <v>1523938</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>38256</v>
+        <v>48256</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>131126</v>
+        <v>132060</v>
       </c>
       <c r="D11" t="n">
-        <v>199611581</v>
+        <v>202599608</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D12" t="n">
-        <v>229177</v>
+        <v>230677</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>69424</v>
+        <v>70005</v>
       </c>
       <c r="D13" t="n">
-        <v>105260803</v>
+        <v>107202458</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4226</v>
+        <v>4234</v>
       </c>
       <c r="D17" t="n">
-        <v>6035522</v>
+        <v>6065494</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9205</v>
+        <v>9284</v>
       </c>
       <c r="D22" t="n">
-        <v>13299083</v>
+        <v>13521155</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>87208</v>
+        <v>87824</v>
       </c>
       <c r="D24" t="n">
-        <v>108568469</v>
+        <v>109419554</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" t="n">
-        <v>84209</v>
+        <v>94209</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D29" t="n">
-        <v>436753</v>
+        <v>440083</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>35642</v>
+        <v>35854</v>
       </c>
       <c r="D30" t="n">
-        <v>53120097</v>
+        <v>53581734</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>13010</v>
+        <v>13109</v>
       </c>
       <c r="D33" t="n">
-        <v>19252667</v>
+        <v>19521818</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1658</v>
+        <v>1663</v>
       </c>
       <c r="D36" t="n">
-        <v>2372583</v>
+        <v>2392578</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2409</v>
+        <v>2432</v>
       </c>
       <c r="D38" t="n">
-        <v>3440606</v>
+        <v>3490955</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>108335</v>
+        <v>108987</v>
       </c>
       <c r="D39" t="n">
-        <v>136030163</v>
+        <v>136858251</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D40" t="n">
-        <v>80868</v>
+        <v>82368</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D41" t="n">
-        <v>124578</v>
+        <v>126078</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="D45" t="n">
-        <v>1399938</v>
+        <v>1404517</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>48523</v>
+        <v>48847</v>
       </c>
       <c r="D47" t="n">
-        <v>72126096</v>
+        <v>72731871</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>10385</v>
+        <v>10455</v>
       </c>
       <c r="D49" t="n">
-        <v>15286956</v>
+        <v>15456034</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1507</v>
+        <v>1512</v>
       </c>
       <c r="D51" t="n">
-        <v>2105730</v>
+        <v>2111195</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3056</v>
+        <v>3078</v>
       </c>
       <c r="D54" t="n">
-        <v>4373978</v>
+        <v>4436798</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>77920</v>
+        <v>78465</v>
       </c>
       <c r="D55" t="n">
-        <v>98147558</v>
+        <v>99007845</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D57" t="n">
-        <v>81400</v>
+        <v>89637</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D60" t="n">
-        <v>593151</v>
+        <v>595015</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>31364</v>
+        <v>31588</v>
       </c>
       <c r="D62" t="n">
-        <v>46930822</v>
+        <v>47359833</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D63" t="n">
-        <v>42284</v>
+        <v>44450</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>12766</v>
+        <v>12882</v>
       </c>
       <c r="D65" t="n">
-        <v>18897907</v>
+        <v>19145030</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1463</v>
+        <v>1469</v>
       </c>
       <c r="D67" t="n">
-        <v>2049815</v>
+        <v>2058169</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1966</v>
+        <v>1982</v>
       </c>
       <c r="D71" t="n">
-        <v>2851978</v>
+        <v>2909419</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>23508</v>
+        <v>23648</v>
       </c>
       <c r="D73" t="n">
-        <v>30957696</v>
+        <v>31163970</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8614</v>
+        <v>8660</v>
       </c>
       <c r="D77" t="n">
-        <v>13004665</v>
+        <v>13164204</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5938</v>
+        <v>5971</v>
       </c>
       <c r="D79" t="n">
-        <v>8951723</v>
+        <v>9022672</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D80" t="n">
-        <v>838391</v>
+        <v>839491</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D81" t="n">
-        <v>569028</v>
+        <v>572028</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>159382</v>
+        <v>160494</v>
       </c>
       <c r="D82" t="n">
-        <v>198924752</v>
+        <v>200523980</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D84" t="n">
-        <v>141059</v>
+        <v>143578</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D86" t="n">
-        <v>707270</v>
+        <v>709352</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>69878</v>
+        <v>70351</v>
       </c>
       <c r="D88" t="n">
-        <v>103922169</v>
+        <v>104907477</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>33464</v>
+        <v>33691</v>
       </c>
       <c r="D91" t="n">
-        <v>49571965</v>
+        <v>50157610</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="D93" t="n">
-        <v>4467236</v>
+        <v>4477236</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3719</v>
+        <v>3747</v>
       </c>
       <c r="D95" t="n">
-        <v>5381025</v>
+        <v>5466073</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3992,10 +3992,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>39123</v>
+        <v>39356</v>
       </c>
       <c r="D96" t="n">
-        <v>53609747</v>
+        <v>54054988</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4144,10 +4144,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9738</v>
+        <v>9799</v>
       </c>
       <c r="D100" t="n">
-        <v>14737805</v>
+        <v>14925015</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>9052</v>
+        <v>9098</v>
       </c>
       <c r="D102" t="n">
-        <v>13526673</v>
+        <v>13685471</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4296,10 +4296,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D104" t="n">
-        <v>869044</v>
+        <v>878127</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>17151</v>
+        <v>17206</v>
       </c>
       <c r="D106" t="n">
-        <v>32774515</v>
+        <v>32992757</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3941</v>
+        <v>3956</v>
       </c>
       <c r="D109" t="n">
-        <v>8078607</v>
+        <v>8140751</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5639</v>
+        <v>5658</v>
       </c>
       <c r="D111" t="n">
-        <v>11720603</v>
+        <v>11823621</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D114" t="n">
-        <v>666578</v>
+        <v>675578</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4752,10 +4752,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>161635</v>
+        <v>163083</v>
       </c>
       <c r="D116" t="n">
-        <v>201531290</v>
+        <v>203707585</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1030</v>
+        <v>1041</v>
       </c>
       <c r="D120" t="n">
-        <v>1549192</v>
+        <v>1578470</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>59023</v>
+        <v>59463</v>
       </c>
       <c r="D122" t="n">
-        <v>89595237</v>
+        <v>90839555</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D123" t="n">
-        <v>169671</v>
+        <v>171171</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5056,10 +5056,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>32079</v>
+        <v>32378</v>
       </c>
       <c r="D124" t="n">
-        <v>48600223</v>
+        <v>49490443</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="D125" t="n">
-        <v>1954795</v>
+        <v>1961480</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3047</v>
+        <v>3073</v>
       </c>
       <c r="D129" t="n">
-        <v>4443688</v>
+        <v>4526822</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5322,10 +5322,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>663222</v>
+        <v>672564</v>
       </c>
       <c r="D131" t="n">
-        <v>904356216</v>
+        <v>924790001</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D132" t="n">
-        <v>157262</v>
+        <v>167262</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5398,10 +5398,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D133" t="n">
-        <v>427901</v>
+        <v>447901</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1730</v>
+        <v>1753</v>
       </c>
       <c r="D136" t="n">
-        <v>2862774</v>
+        <v>2940143</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5550,10 +5550,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D137" t="n">
-        <v>69510</v>
+        <v>79510</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5588,10 +5588,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>250551</v>
+        <v>253040</v>
       </c>
       <c r="D138" t="n">
-        <v>392346793</v>
+        <v>401749785</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5626,10 +5626,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="D139" t="n">
-        <v>1127693</v>
+        <v>1182549</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5664,10 +5664,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D140" t="n">
-        <v>44974</v>
+        <v>53957</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5702,10 +5702,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>238120</v>
+        <v>241101</v>
       </c>
       <c r="D141" t="n">
-        <v>374479186</v>
+        <v>385332368</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3138</v>
+        <v>3153</v>
       </c>
       <c r="D144" t="n">
-        <v>4511714</v>
+        <v>4548870</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5930,10 +5930,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>9192</v>
+        <v>9273</v>
       </c>
       <c r="D147" t="n">
-        <v>13606385</v>
+        <v>13863695</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>51273</v>
+        <v>51456</v>
       </c>
       <c r="D150" t="n">
-        <v>68851418</v>
+        <v>69206237</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6196,10 +6196,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="n">
-        <v>14809</v>
+        <v>19118</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6272,10 +6272,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>15691</v>
+        <v>15731</v>
       </c>
       <c r="D156" t="n">
-        <v>23271588</v>
+        <v>23403390</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6310,10 +6310,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>4283</v>
+        <v>4295</v>
       </c>
       <c r="D157" t="n">
-        <v>6247165</v>
+        <v>6281513</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -6500,10 +6500,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D162" t="n">
-        <v>784081</v>
+        <v>791921</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6538,10 +6538,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>20534</v>
+        <v>20664</v>
       </c>
       <c r="D163" t="n">
-        <v>27321758</v>
+        <v>27545267</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6690,10 +6690,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>8525</v>
+        <v>8588</v>
       </c>
       <c r="D167" t="n">
-        <v>12717422</v>
+        <v>12914262</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>6086</v>
+        <v>6122</v>
       </c>
       <c r="D169" t="n">
-        <v>9016339</v>
+        <v>9136021</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D172" t="n">
-        <v>516444</v>
+        <v>519444</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6956,10 +6956,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>29595</v>
+        <v>29719</v>
       </c>
       <c r="D174" t="n">
-        <v>60652344</v>
+        <v>61277131</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -7032,10 +7032,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2983</v>
+        <v>3000</v>
       </c>
       <c r="D176" t="n">
-        <v>6116252</v>
+        <v>6200380</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -7070,10 +7070,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D177" t="n">
-        <v>804159</v>
+        <v>825982</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -7146,10 +7146,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D179" t="n">
-        <v>194523</v>
+        <v>199530</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -7184,10 +7184,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D180" t="n">
-        <v>410487</v>
+        <v>415887</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7222,10 +7222,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>98636</v>
+        <v>99350</v>
       </c>
       <c r="D181" t="n">
-        <v>123425161</v>
+        <v>124412865</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -7412,10 +7412,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="D186" t="n">
-        <v>1007119</v>
+        <v>1017500</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7488,10 +7488,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>37606</v>
+        <v>37876</v>
       </c>
       <c r="D188" t="n">
-        <v>56599653</v>
+        <v>57267264</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -7564,10 +7564,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>15128</v>
+        <v>15252</v>
       </c>
       <c r="D190" t="n">
-        <v>22748540</v>
+        <v>23127385</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -7640,10 +7640,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D192" t="n">
-        <v>1885554</v>
+        <v>1887054</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -7716,10 +7716,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2174</v>
+        <v>2188</v>
       </c>
       <c r="D194" t="n">
-        <v>3148319</v>
+        <v>3183099</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -7792,10 +7792,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>268097</v>
+        <v>269725</v>
       </c>
       <c r="D196" t="n">
-        <v>333478799</v>
+        <v>335896009</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -7868,10 +7868,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D198" t="n">
-        <v>278155</v>
+        <v>281155</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -8020,10 +8020,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="D202" t="n">
-        <v>1451026</v>
+        <v>1470026</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -8096,10 +8096,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>95648</v>
+        <v>96156</v>
       </c>
       <c r="D204" t="n">
-        <v>142757191</v>
+        <v>143794046</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -8210,10 +8210,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>37811</v>
+        <v>38064</v>
       </c>
       <c r="D207" t="n">
-        <v>55783864</v>
+        <v>56437565</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -8324,10 +8324,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>5576</v>
+        <v>5582</v>
       </c>
       <c r="D210" t="n">
-        <v>8030982</v>
+        <v>8047721</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8438,10 +8438,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>6385</v>
+        <v>6423</v>
       </c>
       <c r="D213" t="n">
-        <v>8984958</v>
+        <v>9090951</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8552,10 +8552,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>300610</v>
+        <v>302985</v>
       </c>
       <c r="D216" t="n">
-        <v>374377231</v>
+        <v>378000974</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -8818,10 +8818,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D223" t="n">
-        <v>1033447</v>
+        <v>1057023</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -8894,10 +8894,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>106524</v>
+        <v>107201</v>
       </c>
       <c r="D225" t="n">
-        <v>161794836</v>
+        <v>163869518</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -9008,10 +9008,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>59483</v>
+        <v>59916</v>
       </c>
       <c r="D228" t="n">
-        <v>89651369</v>
+        <v>90949260</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -9122,10 +9122,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>5029</v>
+        <v>5042</v>
       </c>
       <c r="D231" t="n">
-        <v>7101378</v>
+        <v>7124092</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -9236,10 +9236,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>8043</v>
+        <v>8099</v>
       </c>
       <c r="D234" t="n">
-        <v>11495720</v>
+        <v>11638662</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -9350,10 +9350,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>120397</v>
+        <v>121145</v>
       </c>
       <c r="D237" t="n">
-        <v>150555437</v>
+        <v>151574078</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -9426,10 +9426,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D239" t="n">
-        <v>130401</v>
+        <v>131901</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -9464,10 +9464,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D240" t="n">
-        <v>17147</v>
+        <v>18647</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -9540,10 +9540,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D242" t="n">
-        <v>882966</v>
+        <v>888837</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -9616,10 +9616,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>54663</v>
+        <v>55050</v>
       </c>
       <c r="D244" t="n">
-        <v>81080113</v>
+        <v>81774514</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -9692,10 +9692,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>14568</v>
+        <v>14683</v>
       </c>
       <c r="D246" t="n">
-        <v>21471994</v>
+        <v>21777042</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -9768,10 +9768,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="D248" t="n">
-        <v>2887401</v>
+        <v>2903697</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3247</v>
+        <v>3263</v>
       </c>
       <c r="D250" t="n">
-        <v>4627210</v>
+        <v>4672030</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -9882,10 +9882,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>298889</v>
+        <v>301566</v>
       </c>
       <c r="D251" t="n">
-        <v>382413075</v>
+        <v>386977432</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -9920,10 +9920,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D252" t="n">
-        <v>261483</v>
+        <v>266658</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -9958,10 +9958,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D253" t="n">
-        <v>400849</v>
+        <v>402541</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -10148,10 +10148,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>975</v>
+        <v>982</v>
       </c>
       <c r="D258" t="n">
-        <v>1502512</v>
+        <v>1524245</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -10224,10 +10224,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>109828</v>
+        <v>110620</v>
       </c>
       <c r="D260" t="n">
-        <v>169149978</v>
+        <v>171715362</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -10338,10 +10338,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>78284</v>
+        <v>78981</v>
       </c>
       <c r="D263" t="n">
-        <v>120540492</v>
+        <v>122830034</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>2648</v>
+        <v>2662</v>
       </c>
       <c r="D265" t="n">
-        <v>3784800</v>
+        <v>3832416</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -10528,10 +10528,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>6472</v>
+        <v>6535</v>
       </c>
       <c r="D268" t="n">
-        <v>9464309</v>
+        <v>9640490</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>371530</v>
+        <v>374642</v>
       </c>
       <c r="D2" t="n">
-        <v>478438275</v>
+        <v>483536102</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D3" t="n">
-        <v>358730</v>
+        <v>359605</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D4" t="n">
-        <v>575460</v>
+        <v>582935</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="D9" t="n">
-        <v>1523938</v>
+        <v>1553917</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>48256</v>
+        <v>58256</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>132060</v>
+        <v>132994</v>
       </c>
       <c r="D11" t="n">
-        <v>202599608</v>
+        <v>205587635</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D12" t="n">
-        <v>230677</v>
+        <v>232177</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>70005</v>
+        <v>70586</v>
       </c>
       <c r="D13" t="n">
-        <v>107202458</v>
+        <v>109144113</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4234</v>
+        <v>4242</v>
       </c>
       <c r="D17" t="n">
-        <v>6065494</v>
+        <v>6095466</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9284</v>
+        <v>9363</v>
       </c>
       <c r="D22" t="n">
-        <v>13521155</v>
+        <v>13743227</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>87824</v>
+        <v>88440</v>
       </c>
       <c r="D24" t="n">
-        <v>109419554</v>
+        <v>110270639</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" t="n">
-        <v>94209</v>
+        <v>104209</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D29" t="n">
-        <v>440083</v>
+        <v>443413</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>35854</v>
+        <v>36066</v>
       </c>
       <c r="D30" t="n">
-        <v>53581734</v>
+        <v>54043371</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>13109</v>
+        <v>13208</v>
       </c>
       <c r="D33" t="n">
-        <v>19521818</v>
+        <v>19790969</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1663</v>
+        <v>1668</v>
       </c>
       <c r="D36" t="n">
-        <v>2392578</v>
+        <v>2412573</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2432</v>
+        <v>2455</v>
       </c>
       <c r="D38" t="n">
-        <v>3490955</v>
+        <v>3541304</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>108987</v>
+        <v>109639</v>
       </c>
       <c r="D39" t="n">
-        <v>136858251</v>
+        <v>137686339</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D40" t="n">
-        <v>82368</v>
+        <v>83868</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D41" t="n">
-        <v>126078</v>
+        <v>127578</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="D45" t="n">
-        <v>1404517</v>
+        <v>1409096</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>48847</v>
+        <v>49171</v>
       </c>
       <c r="D47" t="n">
-        <v>72731871</v>
+        <v>73337646</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>10455</v>
+        <v>10525</v>
       </c>
       <c r="D49" t="n">
-        <v>15456034</v>
+        <v>15625112</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1512</v>
+        <v>1517</v>
       </c>
       <c r="D51" t="n">
-        <v>2111195</v>
+        <v>2116660</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3078</v>
+        <v>3100</v>
       </c>
       <c r="D54" t="n">
-        <v>4436798</v>
+        <v>4499618</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>78465</v>
+        <v>79010</v>
       </c>
       <c r="D55" t="n">
-        <v>99007845</v>
+        <v>99868132</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D57" t="n">
-        <v>89637</v>
+        <v>97874</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D60" t="n">
-        <v>595015</v>
+        <v>596879</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>31588</v>
+        <v>31812</v>
       </c>
       <c r="D62" t="n">
-        <v>47359833</v>
+        <v>47788844</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D63" t="n">
-        <v>44450</v>
+        <v>46616</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>12882</v>
+        <v>12998</v>
       </c>
       <c r="D65" t="n">
-        <v>19145030</v>
+        <v>19392153</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1469</v>
+        <v>1475</v>
       </c>
       <c r="D67" t="n">
-        <v>2058169</v>
+        <v>2066523</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1982</v>
+        <v>1998</v>
       </c>
       <c r="D71" t="n">
-        <v>2909419</v>
+        <v>2966860</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>23648</v>
+        <v>23788</v>
       </c>
       <c r="D73" t="n">
-        <v>31163970</v>
+        <v>31370244</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8660</v>
+        <v>8706</v>
       </c>
       <c r="D77" t="n">
-        <v>13164204</v>
+        <v>13323743</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5971</v>
+        <v>6004</v>
       </c>
       <c r="D79" t="n">
-        <v>9022672</v>
+        <v>9093621</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D80" t="n">
-        <v>839491</v>
+        <v>840591</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D81" t="n">
-        <v>572028</v>
+        <v>575028</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>160494</v>
+        <v>161606</v>
       </c>
       <c r="D82" t="n">
-        <v>200523980</v>
+        <v>202123208</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D84" t="n">
-        <v>143578</v>
+        <v>146097</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D86" t="n">
-        <v>709352</v>
+        <v>711434</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>70351</v>
+        <v>70824</v>
       </c>
       <c r="D88" t="n">
-        <v>104907477</v>
+        <v>105892785</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>33691</v>
+        <v>33918</v>
       </c>
       <c r="D91" t="n">
-        <v>50157610</v>
+        <v>50743255</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="D93" t="n">
-        <v>4477236</v>
+        <v>4487236</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3747</v>
+        <v>3775</v>
       </c>
       <c r="D95" t="n">
-        <v>5466073</v>
+        <v>5551121</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3992,10 +3992,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>39356</v>
+        <v>39589</v>
       </c>
       <c r="D96" t="n">
-        <v>54054988</v>
+        <v>54500229</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4144,10 +4144,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9799</v>
+        <v>9860</v>
       </c>
       <c r="D100" t="n">
-        <v>14925015</v>
+        <v>15112225</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>9098</v>
+        <v>9144</v>
       </c>
       <c r="D102" t="n">
-        <v>13685471</v>
+        <v>13844269</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4296,10 +4296,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D104" t="n">
-        <v>878127</v>
+        <v>887210</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>17206</v>
+        <v>17261</v>
       </c>
       <c r="D106" t="n">
-        <v>32992757</v>
+        <v>33210999</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3956</v>
+        <v>3971</v>
       </c>
       <c r="D109" t="n">
-        <v>8140751</v>
+        <v>8202895</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5658</v>
+        <v>5677</v>
       </c>
       <c r="D111" t="n">
-        <v>11823621</v>
+        <v>11926639</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D114" t="n">
-        <v>675578</v>
+        <v>684578</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4752,10 +4752,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>163083</v>
+        <v>164531</v>
       </c>
       <c r="D116" t="n">
-        <v>203707585</v>
+        <v>205883880</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1041</v>
+        <v>1052</v>
       </c>
       <c r="D120" t="n">
-        <v>1578470</v>
+        <v>1607748</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>59463</v>
+        <v>59903</v>
       </c>
       <c r="D122" t="n">
-        <v>90839555</v>
+        <v>92083873</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D123" t="n">
-        <v>171171</v>
+        <v>172671</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5056,10 +5056,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>32378</v>
+        <v>32677</v>
       </c>
       <c r="D124" t="n">
-        <v>49490443</v>
+        <v>50380663</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="D125" t="n">
-        <v>1961480</v>
+        <v>1968165</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3073</v>
+        <v>3099</v>
       </c>
       <c r="D129" t="n">
-        <v>4526822</v>
+        <v>4609956</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5322,10 +5322,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>672564</v>
+        <v>681906</v>
       </c>
       <c r="D131" t="n">
-        <v>924790001</v>
+        <v>945223786</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D132" t="n">
-        <v>167262</v>
+        <v>177262</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5398,10 +5398,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D133" t="n">
-        <v>447901</v>
+        <v>467901</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1753</v>
+        <v>1776</v>
       </c>
       <c r="D136" t="n">
-        <v>2940143</v>
+        <v>3017512</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5550,10 +5550,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D137" t="n">
-        <v>79510</v>
+        <v>89510</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5588,10 +5588,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>253040</v>
+        <v>255529</v>
       </c>
       <c r="D138" t="n">
-        <v>401749785</v>
+        <v>411152777</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5626,10 +5626,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="D139" t="n">
-        <v>1182549</v>
+        <v>1237405</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5664,10 +5664,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D140" t="n">
-        <v>53957</v>
+        <v>62940</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5702,10 +5702,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>241101</v>
+        <v>244082</v>
       </c>
       <c r="D141" t="n">
-        <v>385332368</v>
+        <v>396185550</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3153</v>
+        <v>3168</v>
       </c>
       <c r="D144" t="n">
-        <v>4548870</v>
+        <v>4586026</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5930,10 +5930,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>9273</v>
+        <v>9354</v>
       </c>
       <c r="D147" t="n">
-        <v>13863695</v>
+        <v>14121005</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>51456</v>
+        <v>51639</v>
       </c>
       <c r="D150" t="n">
-        <v>69206237</v>
+        <v>69561056</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6196,10 +6196,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="n">
-        <v>19118</v>
+        <v>23427</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6272,10 +6272,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>15731</v>
+        <v>15771</v>
       </c>
       <c r="D156" t="n">
-        <v>23403390</v>
+        <v>23535192</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6310,10 +6310,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>4295</v>
+        <v>4307</v>
       </c>
       <c r="D157" t="n">
-        <v>6281513</v>
+        <v>6315861</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -6500,10 +6500,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D162" t="n">
-        <v>791921</v>
+        <v>799761</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6538,10 +6538,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>20664</v>
+        <v>20794</v>
       </c>
       <c r="D163" t="n">
-        <v>27545267</v>
+        <v>27768776</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6690,10 +6690,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>8588</v>
+        <v>8651</v>
       </c>
       <c r="D167" t="n">
-        <v>12914262</v>
+        <v>13111102</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>6122</v>
+        <v>6158</v>
       </c>
       <c r="D169" t="n">
-        <v>9136021</v>
+        <v>9255703</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D172" t="n">
-        <v>519444</v>
+        <v>522444</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6956,10 +6956,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>29719</v>
+        <v>29843</v>
       </c>
       <c r="D174" t="n">
-        <v>61277131</v>
+        <v>61901918</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -7032,10 +7032,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3000</v>
+        <v>3017</v>
       </c>
       <c r="D176" t="n">
-        <v>6200380</v>
+        <v>6284508</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -7070,10 +7070,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D177" t="n">
-        <v>825982</v>
+        <v>847805</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -7146,10 +7146,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D179" t="n">
-        <v>199530</v>
+        <v>204537</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -7184,10 +7184,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D180" t="n">
-        <v>415887</v>
+        <v>421287</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7222,10 +7222,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>99350</v>
+        <v>100064</v>
       </c>
       <c r="D181" t="n">
-        <v>124412865</v>
+        <v>125400569</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -7412,10 +7412,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D186" t="n">
-        <v>1017500</v>
+        <v>1027881</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7488,10 +7488,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>37876</v>
+        <v>38146</v>
       </c>
       <c r="D188" t="n">
-        <v>57267264</v>
+        <v>57934875</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -7564,10 +7564,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>15252</v>
+        <v>15376</v>
       </c>
       <c r="D190" t="n">
-        <v>23127385</v>
+        <v>23506230</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -7640,10 +7640,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D192" t="n">
-        <v>1887054</v>
+        <v>1888554</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -7716,10 +7716,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2188</v>
+        <v>2202</v>
       </c>
       <c r="D194" t="n">
-        <v>3183099</v>
+        <v>3217879</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -7792,10 +7792,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>269725</v>
+        <v>271353</v>
       </c>
       <c r="D196" t="n">
-        <v>335896009</v>
+        <v>338313219</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -7868,10 +7868,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D198" t="n">
-        <v>281155</v>
+        <v>284155</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -8020,10 +8020,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="D202" t="n">
-        <v>1470026</v>
+        <v>1489026</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -8096,10 +8096,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>96156</v>
+        <v>96664</v>
       </c>
       <c r="D204" t="n">
-        <v>143794046</v>
+        <v>144830901</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -8210,10 +8210,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>38064</v>
+        <v>38317</v>
       </c>
       <c r="D207" t="n">
-        <v>56437565</v>
+        <v>57091266</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -8324,10 +8324,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>5582</v>
+        <v>5588</v>
       </c>
       <c r="D210" t="n">
-        <v>8047721</v>
+        <v>8064460</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8438,10 +8438,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>6423</v>
+        <v>6461</v>
       </c>
       <c r="D213" t="n">
-        <v>9090951</v>
+        <v>9196944</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8552,10 +8552,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>302985</v>
+        <v>305361</v>
       </c>
       <c r="D216" t="n">
-        <v>378000974</v>
+        <v>381626217</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -8818,10 +8818,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D223" t="n">
-        <v>1057023</v>
+        <v>1080599</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -8894,10 +8894,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>107201</v>
+        <v>107878</v>
       </c>
       <c r="D225" t="n">
-        <v>163869518</v>
+        <v>165944200</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -9008,10 +9008,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>59916</v>
+        <v>60349</v>
       </c>
       <c r="D228" t="n">
-        <v>90949260</v>
+        <v>92247151</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -9122,10 +9122,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>5042</v>
+        <v>5055</v>
       </c>
       <c r="D231" t="n">
-        <v>7124092</v>
+        <v>7146806</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -9236,10 +9236,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>8099</v>
+        <v>8155</v>
       </c>
       <c r="D234" t="n">
-        <v>11638662</v>
+        <v>11781604</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -9350,10 +9350,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>121145</v>
+        <v>121893</v>
       </c>
       <c r="D237" t="n">
-        <v>151574078</v>
+        <v>152592719</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -9426,10 +9426,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D239" t="n">
-        <v>131901</v>
+        <v>133401</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -9464,10 +9464,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D240" t="n">
-        <v>18647</v>
+        <v>20147</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -9540,10 +9540,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="D242" t="n">
-        <v>888837</v>
+        <v>894708</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -9616,10 +9616,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>55050</v>
+        <v>55437</v>
       </c>
       <c r="D244" t="n">
-        <v>81774514</v>
+        <v>82468915</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -9692,10 +9692,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>14683</v>
+        <v>14798</v>
       </c>
       <c r="D246" t="n">
-        <v>21777042</v>
+        <v>22082090</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -9768,10 +9768,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="D248" t="n">
-        <v>2903697</v>
+        <v>2919993</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3263</v>
+        <v>3279</v>
       </c>
       <c r="D250" t="n">
-        <v>4672030</v>
+        <v>4716850</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -9882,10 +9882,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>301566</v>
+        <v>304243</v>
       </c>
       <c r="D251" t="n">
-        <v>386977432</v>
+        <v>391541789</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -9920,10 +9920,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D252" t="n">
-        <v>266658</v>
+        <v>271833</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -9958,10 +9958,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D253" t="n">
-        <v>402541</v>
+        <v>404233</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -10148,10 +10148,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="D258" t="n">
-        <v>1524245</v>
+        <v>1545978</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -10224,10 +10224,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>110620</v>
+        <v>111412</v>
       </c>
       <c r="D260" t="n">
-        <v>171715362</v>
+        <v>174280746</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -10338,10 +10338,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>78981</v>
+        <v>79678</v>
       </c>
       <c r="D263" t="n">
-        <v>122830034</v>
+        <v>125119576</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>2662</v>
+        <v>2676</v>
       </c>
       <c r="D265" t="n">
-        <v>3832416</v>
+        <v>3880032</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -10528,10 +10528,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>6535</v>
+        <v>6598</v>
       </c>
       <c r="D268" t="n">
-        <v>9640490</v>
+        <v>9816671</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
